--- a/Demo_Website_Testing/Test_Case_Design/Product_Test_Cases.xlsx
+++ b/Demo_Website_Testing/Test_Case_Design/Product_Test_Cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Demo_Website_Testing\Test_Case_Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BD611-F769-4C60-A9BF-6607901F7CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,272 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>TC-PL-01</t>
+  </si>
+  <si>
+    <t>TC-PL-02</t>
+  </si>
+  <si>
+    <t>TC-PL-03</t>
+  </si>
+  <si>
+    <t>TC-PL-04</t>
+  </si>
+  <si>
+    <t>TC-PL-05</t>
+  </si>
+  <si>
+    <t>TC-PL-06</t>
+  </si>
+  <si>
+    <t>TC-PL-07</t>
+  </si>
+  <si>
+    <t>TC-PL-08</t>
+  </si>
+  <si>
+    <t>TC-PL-09</t>
+  </si>
+  <si>
+    <t>TC-PL-10</t>
+  </si>
+  <si>
+    <t>TC-PL-11</t>
+  </si>
+  <si>
+    <t>TC-PL-12</t>
+  </si>
+  <si>
+    <t>TS-PL-01</t>
+  </si>
+  <si>
+    <t>TS-PL-02</t>
+  </si>
+  <si>
+    <t>TS-PL-03</t>
+  </si>
+  <si>
+    <t>TS-PL-04</t>
+  </si>
+  <si>
+    <t>TS-PL-05</t>
+  </si>
+  <si>
+    <t>TS-PL-06</t>
+  </si>
+  <si>
+    <t>TS-PL-07</t>
+  </si>
+  <si>
+    <t>TS-PL-08</t>
+  </si>
+  <si>
+    <t>TS-PL-09</t>
+  </si>
+  <si>
+    <t>TS-PL-10</t>
+  </si>
+  <si>
+    <t>TS-PL-11</t>
+  </si>
+  <si>
+    <t>TS-PL-12</t>
+  </si>
+  <si>
+    <t>Verify product listing page loads</t>
+  </si>
+  <si>
+    <t>Verify all products are displayed</t>
+  </si>
+  <si>
+    <t>Verify product images are displayed</t>
+  </si>
+  <si>
+    <t>Verify product names are displayed</t>
+  </si>
+  <si>
+    <t>Verify product prices are displayed</t>
+  </si>
+  <si>
+    <t>Verify product categories</t>
+  </si>
+  <si>
+    <t>Verify product card UI consistency</t>
+  </si>
+  <si>
+    <t>Verify navigation to product details</t>
+  </si>
+  <si>
+    <t>Verify scroll behavior</t>
+  </si>
+  <si>
+    <t>Verify responsiveness on mobile</t>
+  </si>
+  <si>
+    <t>Verify product listing on different browsers</t>
+  </si>
+  <si>
+    <t>Verify page load performance</t>
+  </si>
+  <si>
+    <t>Application is accessible</t>
+  </si>
+  <si>
+    <t>Product listing page is open</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Navigate to Products page</t>
+  </si>
+  <si>
+    <t>Scroll through product list</t>
+  </si>
+  <si>
+    <t>Check images for each product</t>
+  </si>
+  <si>
+    <t>Observe product names</t>
+  </si>
+  <si>
+    <t>Check prices for products</t>
+  </si>
+  <si>
+    <t>Observe product categories</t>
+  </si>
+  <si>
+    <t>Check alignment and layout</t>
+  </si>
+  <si>
+    <t>Click on any product</t>
+  </si>
+  <si>
+    <t>Scroll down the page</t>
+  </si>
+  <si>
+    <t>Resize browser or use mobile view</t>
+  </si>
+  <si>
+    <t>Open page in Chrome, Firefox, Edge</t>
+  </si>
+  <si>
+    <t>Observe page load time</t>
+  </si>
+  <si>
+    <t>URL: https://automationexercise.com/products</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Product listing page loads successfully</t>
+  </si>
+  <si>
+    <t>All available products are displayed</t>
+  </si>
+  <si>
+    <t>All product images are visible</t>
+  </si>
+  <si>
+    <t>Product names are readable and correct</t>
+  </si>
+  <si>
+    <t>Product prices are displayed correctly</t>
+  </si>
+  <si>
+    <t>Product categories are displayed correctly</t>
+  </si>
+  <si>
+    <t>UI is consistent and aligned</t>
+  </si>
+  <si>
+    <t>User is navigated to correct product details page</t>
+  </si>
+  <si>
+    <t>Page scrolls smoothly</t>
+  </si>
+  <si>
+    <t>Page adjusts correctly to screen size</t>
+  </si>
+  <si>
+    <t>Product listing works across browsers</t>
+  </si>
+  <si>
+    <t>Page loads within acceptable time</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>UI is not consistent and aligned</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +311,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +625,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Demo_Website_Testing/Test_Case_Design/Product_Test_Cases.xlsx
+++ b/Demo_Website_Testing/Test_Case_Design/Product_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wasana\University\Projects\QA-Portfolio\Demo_Website_Testing\Test_Case_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BD611-F769-4C60-A9BF-6607901F7CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC1403B-F0A4-4A59-A41C-CDF8D3774237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
